--- a/用紙管理/02_用紙台帳/台帳設計図.xlsx
+++ b/用紙管理/02_用紙台帳/台帳設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\02_用紙台帳\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A52244-F1E7-4BBD-A8D6-9A9B6CA4862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367724B-B800-44D5-BDDA-664395A53E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
   </bookViews>
   <sheets>
     <sheet name="概要書" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
   <si>
     <t>###</t>
   </si>
@@ -360,13 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下段</t>
-    <rPh sb="0" eb="2">
-      <t>ゲダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■追加</t>
     <rPh sb="1" eb="3">
       <t>ツイカ</t>
@@ -483,6 +476,114 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台帳リスト</t>
+    <rPh sb="0" eb="2">
+      <t>ダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用紙ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銘柄</t>
+    <rPh sb="0" eb="2">
+      <t>メイガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙色</t>
+    <rPh sb="0" eb="2">
+      <t>カミイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さ</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入庫数</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウコスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定数</t>
+    <rPh sb="0" eb="3">
+      <t>ヨテイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定日</t>
+    <rPh sb="0" eb="3">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費数</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴リスト</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1076,10 +1177,10 @@
         <v>53</v>
       </c>
       <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1233,7 +1334,7 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
@@ -1256,7 +1357,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>61</v>
@@ -1313,46 +1414,46 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="5:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="5:8" ht="63" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1378,125 +1479,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80FDE8C-98EB-4439-AF8F-E102905476C2}">
-  <dimension ref="D5:S7"/>
+  <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>38</v>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>800</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:K6" si="0">E6+E7</f>
-        <v>105</v>
+        <f>E7+E6</f>
+        <v>45</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>275</v>
+        <f t="shared" ref="G6:P6" si="0">F7+F6</f>
+        <v>150</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:S6" si="1">K6+K7</f>
-        <v>477</v>
+        <f t="shared" si="0"/>
+        <v>468</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>542</v>
+        <f t="shared" si="0"/>
+        <v>530</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>614</v>
+        <f t="shared" si="0"/>
+        <v>592</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>646</v>
+        <f t="shared" si="0"/>
+        <v>654</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>718</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>805</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>885</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>985</v>
-      </c>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
       <c r="E7">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="G7">
+        <v>105</v>
+      </c>
+      <c r="H7">
+        <v>68</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
         <v>62</v>
       </c>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>48</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>38</v>
-      </c>
       <c r="L7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O7">
-        <v>72</v>
-      </c>
-      <c r="P7">
-        <v>87</v>
-      </c>
-      <c r="Q7">
-        <v>80</v>
-      </c>
-      <c r="R7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1509,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3CE028-06AE-45E7-802C-A178FDA17818}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/用紙管理/02_用紙台帳/台帳設計図.xlsx
+++ b/用紙管理/02_用紙台帳/台帳設計図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\02_用紙台帳\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367724B-B800-44D5-BDDA-664395A53E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE175EEF-F021-4948-A1FA-0CA0D9BFA380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{02A4BCBD-908B-4776-B090-88A16EE6A340}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1648,10 +1648,83 @@
       <c r="D12" t="s">
         <v>98</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>E13+E12</f>
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:P12" si="1">F13+F12</f>
+        <v>235</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>447</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>509</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>633</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>719</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>99</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>190</v>
+      </c>
+      <c r="G13">
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>62</v>
+      </c>
+      <c r="K13">
+        <v>62</v>
+      </c>
+      <c r="L13">
+        <v>62</v>
+      </c>
+      <c r="M13">
+        <v>62</v>
+      </c>
+      <c r="N13">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
